--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,82 +55,88 @@
     <t>war</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>problem</t>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>falling</t>
   </si>
   <si>
     <t>cancelled</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>anxiety</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>shame</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
@@ -136,18 +145,12 @@
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -160,115 +163,148 @@
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>special</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>special</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>ensure</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>giving</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
   <si>
     <t>corona</t>
@@ -629,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +673,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,13 +734,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -716,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -740,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -748,13 +784,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -766,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -790,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -798,13 +834,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.821917808219178</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -816,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>0.8813559322033898</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -840,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -848,13 +884,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -866,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -890,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -898,13 +934,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -916,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -940,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -948,13 +984,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -966,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8">
-        <v>0.835509138381201</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>320</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>320</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +1034,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7333333333333333</v>
+        <v>0.76</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1016,10 +1052,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9">
         <v>0.8055555555555556</v>
@@ -1048,13 +1084,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7297297297297297</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K10">
-        <v>0.8018867924528302</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L10">
-        <v>85</v>
+        <v>308</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>308</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1090,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1098,13 +1134,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6956521739130435</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1116,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K11">
         <v>0.795774647887324</v>
@@ -1148,13 +1184,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6923076923076923</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1166,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K12">
-        <v>0.7804878048780488</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1190,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1198,13 +1234,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.68</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,16 +1255,16 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="M13">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1240,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,13 +1284,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6521739130434783</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1290,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1298,13 +1334,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5932203389830508</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1316,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15">
-        <v>0.7734375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1340,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1348,13 +1384,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5333333333333333</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1366,19 +1402,19 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L16">
         <v>14</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16">
-        <v>0.7625</v>
-      </c>
-      <c r="L16">
-        <v>122</v>
-      </c>
       <c r="M16">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1390,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1398,13 +1434,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5329457364341085</v>
+        <v>0.6</v>
       </c>
       <c r="C17">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>275</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1416,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K17">
-        <v>0.7446808510638298</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1440,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1448,13 +1484,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5238095238095238</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C18">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D18">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1466,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K18">
-        <v>0.7291666666666666</v>
+        <v>0.775</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1490,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1498,13 +1534,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5185185185185185</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1516,19 +1552,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K19">
-        <v>0.7272727272727273</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1540,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1548,13 +1584,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5098039215686274</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1566,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K20">
-        <v>0.7209302325581395</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1590,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1598,13 +1634,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.5445736434108527</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>281</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>281</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1616,19 +1652,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K21">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1640,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1648,13 +1684,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.525</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1666,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K22">
-        <v>0.7037037037037037</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1690,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1698,13 +1734,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4838709677419355</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1716,19 +1752,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K23">
-        <v>0.6571428571428571</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1748,13 +1784,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4697986577181208</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C24">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1766,19 +1802,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K24">
-        <v>0.6264705882352941</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="M24">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1790,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>127</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1798,13 +1834,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4615384615384616</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1816,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1840,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1848,13 +1884,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4516129032258064</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1866,19 +1902,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6735294117647059</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1890,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1898,13 +1934,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.44</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1916,19 +1952,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1940,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1948,13 +1984,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.375</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1966,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K28">
-        <v>0.5983263598326359</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1990,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>96</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1998,13 +2034,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3636363636363636</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2016,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K29">
-        <v>0.5932203389830508</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L29">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2040,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>120</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2069,16 +2105,16 @@
         <v>23</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K30">
-        <v>0.574468085106383</v>
+        <v>0.625</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2090,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2119,16 +2155,16 @@
         <v>25</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K31">
-        <v>0.5428571428571428</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2140,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2148,38 +2184,38 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3090909090909091</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C32">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>25</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="L32">
         <v>17</v>
       </c>
-      <c r="D32">
+      <c r="M32">
         <v>17</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>38</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K32">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L32">
-        <v>15</v>
-      </c>
-      <c r="M32">
-        <v>15</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
@@ -2190,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2198,13 +2234,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2619047619047619</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C33">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2216,19 +2252,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K33">
-        <v>0.5280898876404494</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L33">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M33">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2240,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2248,13 +2284,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2222222222222222</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2266,19 +2302,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K34">
-        <v>0.5185185185185185</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2290,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2298,13 +2334,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2077922077922078</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2316,31 +2352,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K35">
-        <v>0.4545454545454545</v>
+        <v>0.5884353741496599</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2348,13 +2384,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1875</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2366,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K36">
-        <v>0.3555555555555556</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2390,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2398,13 +2434,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1394101876675603</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C37">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2416,19 +2452,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>321</v>
+        <v>68</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K37">
-        <v>0.3529411764705883</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2440,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2448,7 +2484,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.05333333333333334</v>
+        <v>0.2</v>
       </c>
       <c r="C38">
         <v>16</v>
@@ -2466,19 +2502,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>284</v>
+        <v>64</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K38">
-        <v>0.3150684931506849</v>
+        <v>0.58</v>
       </c>
       <c r="L38">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2490,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2498,37 +2534,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.009987113402061855</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="C39">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E39">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>3073</v>
+        <v>315</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K39">
-        <v>0.3095238095238095</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2540,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2548,75 +2584,385 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.008415147265077139</v>
+        <v>0.01095008051529791</v>
       </c>
       <c r="C40">
+        <v>34</v>
+      </c>
+      <c r="D40">
+        <v>36</v>
+      </c>
+      <c r="E40">
+        <v>0.06</v>
+      </c>
+      <c r="F40">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>3071</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="L40">
+        <v>36</v>
+      </c>
+      <c r="M40">
+        <v>36</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.01028517999064984</v>
+      </c>
+      <c r="C41">
+        <v>22</v>
+      </c>
+      <c r="D41">
+        <v>26</v>
+      </c>
+      <c r="E41">
+        <v>0.15</v>
+      </c>
+      <c r="F41">
+        <v>0.85</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>2117</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K41">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L41">
+        <v>20</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="J42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K42">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="L42">
+        <v>42</v>
+      </c>
+      <c r="M42">
+        <v>42</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="J43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K43">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L43">
+        <v>13</v>
+      </c>
+      <c r="M43">
+        <v>13</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="J44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K44">
+        <v>0.375</v>
+      </c>
+      <c r="L44">
+        <v>24</v>
+      </c>
+      <c r="M44">
+        <v>24</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="J45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K45">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="L45">
+        <v>19</v>
+      </c>
+      <c r="M45">
+        <v>19</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="J46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K46">
+        <v>0.3555555555555556</v>
+      </c>
+      <c r="L46">
+        <v>16</v>
+      </c>
+      <c r="M46">
+        <v>16</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="J47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K47">
+        <v>0.3205128205128205</v>
+      </c>
+      <c r="L47">
+        <v>25</v>
+      </c>
+      <c r="M47">
+        <v>25</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K48">
+        <v>0.3050847457627119</v>
+      </c>
+      <c r="L48">
         <v>18</v>
       </c>
-      <c r="D40">
+      <c r="M48">
+        <v>18</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K49">
+        <v>0.3013698630136986</v>
+      </c>
+      <c r="L49">
         <v>22</v>
       </c>
-      <c r="E40">
-        <v>0.18</v>
-      </c>
-      <c r="F40">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>2121</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K40">
-        <v>0.2435897435897436</v>
-      </c>
-      <c r="L40">
-        <v>19</v>
-      </c>
-      <c r="M40">
-        <v>19</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K41">
-        <v>0.005014102162331557</v>
-      </c>
-      <c r="L41">
-        <v>16</v>
-      </c>
-      <c r="M41">
-        <v>26</v>
-      </c>
-      <c r="N41">
-        <v>0.62</v>
-      </c>
-      <c r="O41">
-        <v>0.38</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>3175</v>
+      <c r="M49">
+        <v>22</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K50">
+        <v>0.2459016393442623</v>
+      </c>
+      <c r="L50">
+        <v>15</v>
+      </c>
+      <c r="M50">
+        <v>15</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K51">
+        <v>0.1296296296296296</v>
+      </c>
+      <c r="L51">
+        <v>14</v>
+      </c>
+      <c r="M51">
+        <v>15</v>
+      </c>
+      <c r="N51">
+        <v>0.93</v>
+      </c>
+      <c r="O51">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K52">
+        <v>0.006894390473205891</v>
+      </c>
+      <c r="L52">
+        <v>22</v>
+      </c>
+      <c r="M52">
+        <v>32</v>
+      </c>
+      <c r="N52">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O52">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>3169</v>
       </c>
     </row>
   </sheetData>
